--- a/maps/tilemaps/Braunschweig_SQ_tile_counts.xlsx
+++ b/maps/tilemaps/Braunschweig_SQ_tile_counts.xlsx
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -444,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -452,7 +452,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/maps/tilemaps/Braunschweig_SQ_tile_counts.xlsx
+++ b/maps/tilemaps/Braunschweig_SQ_tile_counts.xlsx
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -444,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -452,7 +452,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
